--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 2.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3945,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4583,12 +4583,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5651,12 +5651,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6407,12 +6407,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8159,12 +8159,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9185,12 +9185,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9375,12 +9375,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
